--- a/auto-save-NPCs/NpcsAo-Web.xlsx
+++ b/auto-save-NPCs/NpcsAo-Web.xlsx
@@ -595,7 +595,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/auto-save-NPCs/NpcsAo-Web.xlsx
+++ b/auto-save-NPCs/NpcsAo-Web.xlsx
@@ -260,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,6 +305,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -603,11 +624,11 @@
     <col min="1" max="1" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5703125" style="15" bestFit="1" customWidth="1"/>
@@ -625,22 +646,22 @@
       <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="9" t="s">
@@ -666,22 +687,22 @@
       <c r="C2" s="10">
         <v>1</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="17">
         <v>1</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="17">
         <v>1</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="17">
         <v>10</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="17">
         <v>5</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="17">
         <v>10</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="17">
         <v>20</v>
       </c>
       <c r="J2" s="10">
@@ -707,22 +728,22 @@
       <c r="C3" s="10">
         <v>2</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="17">
         <v>2</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="17">
         <v>1</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="17">
         <v>20</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="17">
         <v>10</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="17">
         <v>15</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="17">
         <v>25</v>
       </c>
       <c r="J3" s="10">
@@ -748,22 +769,22 @@
       <c r="C4" s="10">
         <v>3</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="17">
         <v>3</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="17">
         <v>2</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="17">
         <v>30</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="17">
         <v>15</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="17">
         <v>20</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="17">
         <v>20</v>
       </c>
       <c r="J4" s="10">
@@ -789,22 +810,22 @@
       <c r="C5" s="10">
         <v>4</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="17">
         <v>4</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="17">
         <v>3</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="17">
         <v>40</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="17">
         <v>20</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="17">
         <v>25</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="17">
         <v>25</v>
       </c>
       <c r="J5" s="10">
@@ -830,22 +851,22 @@
       <c r="C6" s="10">
         <v>5</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="17">
         <v>5</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="17">
         <v>4</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="17">
         <v>50</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="17">
         <v>25</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="17">
         <v>30</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="17">
         <v>30</v>
       </c>
       <c r="J6" s="10">
@@ -871,22 +892,22 @@
       <c r="C7" s="10">
         <v>6</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="17">
         <v>6</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="17">
         <v>5</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="17">
         <v>60</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="17">
         <v>30</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="17">
         <v>35</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="17">
         <v>35</v>
       </c>
       <c r="J7" s="10">
@@ -912,22 +933,22 @@
       <c r="C8" s="10">
         <v>7</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="17">
         <v>7</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="17">
         <v>6</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="17">
         <v>70</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="17">
         <v>35</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="17">
         <v>40</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="17">
         <v>40</v>
       </c>
       <c r="J8" s="10">
@@ -953,22 +974,22 @@
       <c r="C9" s="10">
         <v>8</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="17">
         <v>8</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="17">
         <v>7</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="17">
         <v>80</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="17">
         <v>40</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="17">
         <v>45</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="17">
         <v>45</v>
       </c>
       <c r="J9" s="10">
@@ -994,22 +1015,22 @@
       <c r="C10" s="10">
         <v>9</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="17">
         <v>9</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="17">
         <v>8</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="17">
         <v>90</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="17">
         <v>45</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="17">
         <v>50</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="17">
         <v>50</v>
       </c>
       <c r="J10" s="10">
@@ -1035,22 +1056,22 @@
       <c r="C11" s="10">
         <v>10</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="17">
         <v>10</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="17">
         <v>9</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="17">
         <v>100</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="17">
         <v>50</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="17">
         <v>55</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="17">
         <v>55</v>
       </c>
       <c r="J11" s="10">
@@ -1076,22 +1097,22 @@
       <c r="C12" s="11">
         <v>12</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="18">
         <v>20</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="18">
         <v>15</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="18">
         <v>110</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="18">
         <v>55</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="18">
         <v>60</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="18">
         <v>60</v>
       </c>
       <c r="J12" s="11">
@@ -1117,22 +1138,22 @@
       <c r="C13" s="11">
         <v>15</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="18">
         <v>30</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="18">
         <v>25</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="18">
         <v>120</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="18">
         <v>60</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="18">
         <v>65</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="18">
         <v>65</v>
       </c>
       <c r="J13" s="11">
@@ -1158,22 +1179,22 @@
       <c r="C14" s="11">
         <v>17</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="18">
         <v>40</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="18">
         <v>35</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="18">
         <v>130</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="18">
         <v>65</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="18">
         <v>70</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="18">
         <v>70</v>
       </c>
       <c r="J14" s="11">
@@ -1199,22 +1220,22 @@
       <c r="C15" s="11">
         <v>20</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="18">
         <v>50</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="18">
         <v>45</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="18">
         <v>140</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="18">
         <v>70</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="18">
         <v>75</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="18">
         <v>75</v>
       </c>
       <c r="J15" s="11">
@@ -1240,22 +1261,22 @@
       <c r="C16" s="11">
         <v>25</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="18">
         <v>60</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="18">
         <v>55</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="18">
         <v>150</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="18">
         <v>75</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="18">
         <v>80</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="18">
         <v>80</v>
       </c>
       <c r="J16" s="11">
@@ -1281,22 +1302,22 @@
       <c r="C17" s="11">
         <v>30</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="18">
         <v>70</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="18">
         <v>65</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="18">
         <v>160</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="18">
         <v>80</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="18">
         <v>85</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="18">
         <v>85</v>
       </c>
       <c r="J17" s="11">
@@ -1322,22 +1343,22 @@
       <c r="C18" s="12">
         <v>80</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="19">
         <v>100</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="19">
         <v>80</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="19">
         <v>170</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="19">
         <v>85</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="19">
         <v>90</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="19">
         <v>90</v>
       </c>
       <c r="J18" s="12">
@@ -1363,22 +1384,22 @@
       <c r="C19" s="12">
         <v>90</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="19">
         <v>120</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="19">
         <v>90</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="19">
         <v>180</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="19">
         <v>90</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="19">
         <v>95</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="19">
         <v>95</v>
       </c>
       <c r="J19" s="12">
@@ -1404,22 +1425,22 @@
       <c r="C20" s="12">
         <v>100</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="19">
         <v>200</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="19">
         <v>100</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="19">
         <v>190</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="19">
         <v>95</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="19">
         <v>100</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="19">
         <v>100</v>
       </c>
       <c r="J20" s="12">
@@ -1445,22 +1466,22 @@
       <c r="C21" s="13">
         <v>35</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="20">
         <v>1000</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="20">
         <v>750</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="20">
         <v>200</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="20">
         <v>100</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="20">
         <v>110</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="20">
         <v>110</v>
       </c>
       <c r="J21" s="13">
@@ -1486,22 +1507,22 @@
       <c r="C22" s="13">
         <v>40</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="20">
         <v>2000</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="20">
         <v>1500</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="20">
         <v>210</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="20">
         <v>105</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="20">
         <v>115</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="20">
         <v>115</v>
       </c>
       <c r="J22" s="13">
@@ -1527,22 +1548,22 @@
       <c r="C23" s="13">
         <v>45</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="20">
         <v>3000</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="20">
         <v>2500</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="20">
         <v>220</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="20">
         <v>110</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="20">
         <v>120</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="20">
         <v>120</v>
       </c>
       <c r="J23" s="13">
@@ -1568,22 +1589,22 @@
       <c r="C24" s="13">
         <v>50</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="20">
         <v>4000</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="20">
         <v>3000</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="20">
         <v>230</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="20">
         <v>115</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="20">
         <v>125</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="20">
         <v>125</v>
       </c>
       <c r="J24" s="13">
@@ -1609,22 +1630,22 @@
       <c r="C25" s="13">
         <v>55</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="20">
         <v>5000</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="20">
         <v>4500</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="20">
         <v>240</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="20">
         <v>120</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="20">
         <v>130</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="20">
         <v>130</v>
       </c>
       <c r="J25" s="13">
@@ -1650,22 +1671,22 @@
       <c r="C26" s="13">
         <v>60</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="20">
         <v>10000</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="20">
         <v>5800</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="20">
         <v>250</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="20">
         <v>125</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="20">
         <v>135</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="20">
         <v>135</v>
       </c>
       <c r="J26" s="13">
@@ -1691,32 +1712,41 @@
       <c r="C27" s="14">
         <v>110</v>
       </c>
-      <c r="D27" s="14">
-        <v>9723342399192</v>
-      </c>
-      <c r="E27" s="14">
-        <v>9723342399192</v>
-      </c>
-      <c r="F27" s="14">
-        <v>1000</v>
-      </c>
-      <c r="G27" s="14">
-        <v>1500</v>
-      </c>
-      <c r="H27" s="14">
-        <v>200</v>
-      </c>
-      <c r="I27" s="14">
-        <v>200</v>
-      </c>
-      <c r="J27" s="14">
-        <v>0</v>
-      </c>
-      <c r="K27" s="14">
-        <v>0</v>
-      </c>
-      <c r="L27" s="14">
-        <v>0</v>
+      <c r="D27" s="21">
+        <f>D28/2</f>
+        <v>15149666319.375</v>
+      </c>
+      <c r="E27" s="21">
+        <f>E28/2</f>
+        <v>15149666319.375</v>
+      </c>
+      <c r="F27" s="21">
+        <f>F28/2</f>
+        <v>9375</v>
+      </c>
+      <c r="G27" s="21">
+        <f>G28/2</f>
+        <v>28125</v>
+      </c>
+      <c r="H27" s="21">
+        <f>H28/2</f>
+        <v>187.5</v>
+      </c>
+      <c r="I27" s="21">
+        <f>I28/2</f>
+        <v>187.5</v>
+      </c>
+      <c r="J27" s="21">
+        <f t="shared" ref="J27:J28" si="0">J28/2</f>
+        <v>5</v>
+      </c>
+      <c r="K27" s="21">
+        <f>K28/2</f>
+        <v>6.25</v>
+      </c>
+      <c r="L27" s="21">
+        <f t="shared" ref="L27:L28" si="1">L28/2</f>
+        <v>6.25</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>45</v>
@@ -1732,32 +1762,41 @@
       <c r="C28" s="14">
         <v>120</v>
       </c>
-      <c r="D28" s="14">
-        <v>19446684798384</v>
-      </c>
-      <c r="E28" s="14">
-        <v>19446684798384</v>
-      </c>
-      <c r="F28" s="14">
-        <v>3000</v>
-      </c>
-      <c r="G28" s="14">
-        <v>5000</v>
-      </c>
-      <c r="H28" s="14">
-        <v>220</v>
-      </c>
-      <c r="I28" s="14">
-        <v>220</v>
-      </c>
-      <c r="J28" s="14">
-        <v>0</v>
-      </c>
-      <c r="K28" s="14">
-        <v>0</v>
-      </c>
-      <c r="L28" s="14">
-        <v>0</v>
+      <c r="D28" s="21">
+        <f>D29/2</f>
+        <v>30299332638.75</v>
+      </c>
+      <c r="E28" s="21">
+        <f>E29/2</f>
+        <v>30299332638.75</v>
+      </c>
+      <c r="F28" s="21">
+        <f>F29/2</f>
+        <v>18750</v>
+      </c>
+      <c r="G28" s="21">
+        <f>G29/2</f>
+        <v>56250</v>
+      </c>
+      <c r="H28" s="21">
+        <f>H29/2</f>
+        <v>375</v>
+      </c>
+      <c r="I28" s="21">
+        <f>I29/2</f>
+        <v>375</v>
+      </c>
+      <c r="J28" s="21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K28" s="21">
+        <f t="shared" ref="K27:K28" si="2">K29/2</f>
+        <v>12.5</v>
+      </c>
+      <c r="L28" s="21">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>45</v>
@@ -1773,32 +1812,41 @@
       <c r="C29" s="14">
         <v>130</v>
       </c>
-      <c r="D29" s="14">
-        <v>38893369596769</v>
-      </c>
-      <c r="E29" s="14">
-        <v>38893369596769</v>
-      </c>
-      <c r="F29" s="14">
-        <v>10000</v>
-      </c>
-      <c r="G29" s="14">
-        <v>20000</v>
-      </c>
-      <c r="H29" s="14">
-        <v>230</v>
-      </c>
-      <c r="I29" s="14">
-        <v>230</v>
-      </c>
-      <c r="J29" s="14">
-        <v>0</v>
-      </c>
-      <c r="K29" s="14">
-        <v>0</v>
-      </c>
-      <c r="L29" s="14">
-        <v>0</v>
+      <c r="D29" s="21">
+        <f>D30/2</f>
+        <v>60598665277.5</v>
+      </c>
+      <c r="E29" s="21">
+        <f>E30/2</f>
+        <v>60598665277.5</v>
+      </c>
+      <c r="F29" s="21">
+        <f>F30/2</f>
+        <v>37500</v>
+      </c>
+      <c r="G29" s="21">
+        <f>G30/2</f>
+        <v>112500</v>
+      </c>
+      <c r="H29" s="21">
+        <f>H30/2</f>
+        <v>750</v>
+      </c>
+      <c r="I29" s="21">
+        <f>I30/2</f>
+        <v>750</v>
+      </c>
+      <c r="J29" s="21">
+        <f t="shared" ref="J29:L30" si="3">J30/2</f>
+        <v>20</v>
+      </c>
+      <c r="K29" s="21">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="L29" s="21">
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>45</v>
@@ -1814,32 +1862,41 @@
       <c r="C30" s="14">
         <v>140</v>
       </c>
-      <c r="D30" s="14">
-        <v>77786739193539</v>
-      </c>
-      <c r="E30" s="14">
-        <v>77786739193539</v>
-      </c>
-      <c r="F30" s="14">
-        <v>50000</v>
-      </c>
-      <c r="G30" s="14">
-        <v>50000</v>
-      </c>
-      <c r="H30" s="14">
-        <v>250</v>
-      </c>
-      <c r="I30" s="14">
-        <v>250</v>
-      </c>
-      <c r="J30" s="14">
-        <v>0</v>
-      </c>
-      <c r="K30" s="14">
-        <v>0</v>
-      </c>
-      <c r="L30" s="14">
-        <v>0</v>
+      <c r="D30" s="21">
+        <f>D31/2</f>
+        <v>121197330555</v>
+      </c>
+      <c r="E30" s="21">
+        <f>E31/2</f>
+        <v>121197330555</v>
+      </c>
+      <c r="F30" s="21">
+        <f>F31/2</f>
+        <v>75000</v>
+      </c>
+      <c r="G30" s="21">
+        <f>G31/2</f>
+        <v>225000</v>
+      </c>
+      <c r="H30" s="21">
+        <f>H31/2</f>
+        <v>1500</v>
+      </c>
+      <c r="I30" s="21">
+        <f>I31/2</f>
+        <v>1500</v>
+      </c>
+      <c r="J30" s="21">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="K30" s="21">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="L30" s="21">
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>45</v>
@@ -1855,32 +1912,32 @@
       <c r="C31" s="14">
         <v>145</v>
       </c>
-      <c r="D31" s="14">
-        <v>155573478387078</v>
-      </c>
-      <c r="E31" s="14">
-        <v>155573478387078</v>
-      </c>
-      <c r="F31" s="14">
+      <c r="D31" s="21">
+        <v>242394661110</v>
+      </c>
+      <c r="E31" s="21">
+        <v>242394661110</v>
+      </c>
+      <c r="F31" s="21">
         <v>150000</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="21">
         <v>450000</v>
       </c>
-      <c r="H31" s="14">
-        <v>350</v>
-      </c>
-      <c r="I31" s="14">
-        <v>350</v>
+      <c r="H31" s="21">
+        <v>3000</v>
+      </c>
+      <c r="I31" s="21">
+        <v>3000</v>
       </c>
       <c r="J31" s="14">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K31" s="14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L31" s="14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>45</v>

--- a/auto-save-NPCs/NpcsAo-Web.xlsx
+++ b/auto-save-NPCs/NpcsAo-Web.xlsx
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -627,7 +627,7 @@
     <col min="4" max="5" width="19.42578125" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="22" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.85546875" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" style="15" bestFit="1" customWidth="1"/>
@@ -1713,39 +1713,39 @@
         <v>110</v>
       </c>
       <c r="D27" s="21">
-        <f>D28/2</f>
-        <v>15149666319.375</v>
+        <f t="shared" ref="D27:I30" si="0">D28/2</f>
+        <v>1514966.625</v>
       </c>
       <c r="E27" s="21">
-        <f>E28/2</f>
-        <v>15149666319.375</v>
+        <f t="shared" si="0"/>
+        <v>1514966.625</v>
       </c>
       <c r="F27" s="21">
-        <f>F28/2</f>
-        <v>9375</v>
+        <f t="shared" si="0"/>
+        <v>12500</v>
       </c>
       <c r="G27" s="21">
-        <f>G28/2</f>
-        <v>28125</v>
+        <f t="shared" si="0"/>
+        <v>31250</v>
       </c>
       <c r="H27" s="21">
-        <f>H28/2</f>
-        <v>187.5</v>
+        <f t="shared" si="0"/>
+        <v>3125</v>
       </c>
       <c r="I27" s="21">
-        <f>I28/2</f>
-        <v>187.5</v>
+        <f t="shared" si="0"/>
+        <v>3125</v>
       </c>
       <c r="J27" s="21">
-        <f t="shared" ref="J27:J28" si="0">J28/2</f>
-        <v>5</v>
+        <f t="shared" ref="J27:J28" si="1">J28/2</f>
+        <v>15.625</v>
       </c>
       <c r="K27" s="21">
         <f>K28/2</f>
-        <v>6.25</v>
+        <v>31.25</v>
       </c>
       <c r="L27" s="21">
-        <f t="shared" ref="L27:L28" si="1">L28/2</f>
+        <f t="shared" ref="L27:L28" si="2">L28/2</f>
         <v>6.25</v>
       </c>
       <c r="M27" s="7" t="s">
@@ -1763,39 +1763,39 @@
         <v>120</v>
       </c>
       <c r="D28" s="21">
-        <f>D29/2</f>
-        <v>30299332638.75</v>
+        <f t="shared" si="0"/>
+        <v>3029933.25</v>
       </c>
       <c r="E28" s="21">
-        <f>E29/2</f>
-        <v>30299332638.75</v>
+        <f t="shared" si="0"/>
+        <v>3029933.25</v>
       </c>
       <c r="F28" s="21">
-        <f>F29/2</f>
-        <v>18750</v>
+        <f t="shared" si="0"/>
+        <v>25000</v>
       </c>
       <c r="G28" s="21">
-        <f>G29/2</f>
-        <v>56250</v>
+        <f t="shared" si="0"/>
+        <v>62500</v>
       </c>
       <c r="H28" s="21">
-        <f>H29/2</f>
-        <v>375</v>
+        <f t="shared" si="0"/>
+        <v>6250</v>
       </c>
       <c r="I28" s="21">
-        <f>I29/2</f>
-        <v>375</v>
+        <f t="shared" si="0"/>
+        <v>6250</v>
       </c>
       <c r="J28" s="21">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>31.25</v>
       </c>
       <c r="K28" s="21">
-        <f t="shared" ref="K27:K28" si="2">K29/2</f>
-        <v>12.5</v>
+        <f t="shared" ref="K28" si="3">K29/2</f>
+        <v>62.5</v>
       </c>
       <c r="L28" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="M28" s="7" t="s">
@@ -1813,39 +1813,39 @@
         <v>130</v>
       </c>
       <c r="D29" s="21">
-        <f>D30/2</f>
-        <v>60598665277.5</v>
+        <f t="shared" si="0"/>
+        <v>6059866.5</v>
       </c>
       <c r="E29" s="21">
-        <f>E30/2</f>
-        <v>60598665277.5</v>
+        <f t="shared" si="0"/>
+        <v>6059866.5</v>
       </c>
       <c r="F29" s="21">
-        <f>F30/2</f>
-        <v>37500</v>
+        <f t="shared" si="0"/>
+        <v>50000</v>
       </c>
       <c r="G29" s="21">
-        <f>G30/2</f>
-        <v>112500</v>
+        <f t="shared" si="0"/>
+        <v>125000</v>
       </c>
       <c r="H29" s="21">
-        <f>H30/2</f>
-        <v>750</v>
+        <f t="shared" si="0"/>
+        <v>12500</v>
       </c>
       <c r="I29" s="21">
-        <f>I30/2</f>
-        <v>750</v>
+        <f t="shared" si="0"/>
+        <v>12500</v>
       </c>
       <c r="J29" s="21">
-        <f t="shared" ref="J29:L30" si="3">J30/2</f>
-        <v>20</v>
+        <f t="shared" ref="J29:L30" si="4">J30/2</f>
+        <v>62.5</v>
       </c>
       <c r="K29" s="21">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <f t="shared" si="4"/>
+        <v>125</v>
       </c>
       <c r="L29" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="M29" s="7" t="s">
@@ -1863,39 +1863,39 @@
         <v>140</v>
       </c>
       <c r="D30" s="21">
-        <f>D31/2</f>
-        <v>121197330555</v>
+        <f t="shared" si="0"/>
+        <v>12119733</v>
       </c>
       <c r="E30" s="21">
-        <f>E31/2</f>
-        <v>121197330555</v>
+        <f t="shared" si="0"/>
+        <v>12119733</v>
       </c>
       <c r="F30" s="21">
-        <f>F31/2</f>
-        <v>75000</v>
+        <f t="shared" si="0"/>
+        <v>100000</v>
       </c>
       <c r="G30" s="21">
-        <f>G31/2</f>
-        <v>225000</v>
+        <f t="shared" si="0"/>
+        <v>250000</v>
       </c>
       <c r="H30" s="21">
-        <f>H31/2</f>
-        <v>1500</v>
+        <f t="shared" si="0"/>
+        <v>25000</v>
       </c>
       <c r="I30" s="21">
-        <f>I31/2</f>
-        <v>1500</v>
+        <f t="shared" si="0"/>
+        <v>25000</v>
       </c>
       <c r="J30" s="21">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>125</v>
       </c>
       <c r="K30" s="21">
-        <f t="shared" si="3"/>
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="L30" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="M30" s="7" t="s">
@@ -1913,28 +1913,28 @@
         <v>145</v>
       </c>
       <c r="D31" s="21">
-        <v>242394661110</v>
+        <v>24239466</v>
       </c>
       <c r="E31" s="21">
-        <v>242394661110</v>
+        <v>24239466</v>
       </c>
       <c r="F31" s="21">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="G31" s="21">
-        <v>450000</v>
+        <v>500000</v>
       </c>
       <c r="H31" s="21">
-        <v>3000</v>
+        <v>50000</v>
       </c>
       <c r="I31" s="21">
-        <v>3000</v>
+        <v>50000</v>
       </c>
       <c r="J31" s="14">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="K31" s="14">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L31" s="14">
         <v>100</v>
